--- a/medicine/Psychotrope/Impérial_Lofts/Impérial_Lofts.xlsx
+++ b/medicine/Psychotrope/Impérial_Lofts/Impérial_Lofts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Imp%C3%A9rial_Lofts</t>
+          <t>Impérial_Lofts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Impérial Lofts est l’un des derniers vestiges du début de l’âge industriel à Granby.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Imp%C3%A9rial_Lofts</t>
+          <t>Impérial_Lofts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1880 l’industrie du tabac voit le jour à Granby. L’Empire Tobacco, a été fondé Halifax en 1864 par John Archibald, en 1887 l’industrie déménage à Montréal, mais à la suite d'un incendie en 1895 le maire de Granby, Stephen Henderson Campbell Miner, convainc John Archibald de s’installer à Granby avec une offre généreuse[1]. À partir de ce moment-là, l’industrie de spécialise dans le tabac à pipe et à chiquer. En 1898, l’usine se fait vendre à l’American Tobacco, en 1908 elle est rachetée par l’Imperial Tobacco. Celle-ci connaît un développement spectaculaire[1].
-En 1912, a lieu la construction de plus grand immeuble du groupe actuel et il y construit en 1946-1947 un étage supplémentaire. En 1930, on y comptait 700 travailleurs ce qui fut la deuxième plus importante usine de Granby. L’Imperial Tobacco a continué à se consacrer à la production de tabac à chiquer et au tabac à pipe. Certaines marques comme : Royal Oak, Olf Fox, Empire ou Rosebud, ont fait connaitre la ville de Granby jusqu'au bout du Canada[1].
-Mais, après la Seconde Guerre mondiale, la compagnie perd beaucoup d’actif dû au fait que la société évolue et devient plus axé sur les cigarettes que le tabac à chiquer ou le tabac à pipe. Puisqu'il est trop coûteux d’adapter l’usine à une telle demande, la compagnie fait des mises à pied et des baisses de production. En 1971, dû à une demande presque insistante la compagnie ferme ses portes, ce qui met fin à l’industrie du tabac à Granby[1].
-Quelques années plus tard la bâtisse fut achetée par un homme d’affaires du nom de Gérald Scoot, qui l’offre en location à diverses entreprises et à quelques artisanats. En 1974, un projet d’emménagement de l’Impérial est né, après que l’entreprise Chasco en est fait l’acquisition et à développer des ateliers destinés aux artistes. En 1984, eut le 3e Impérial, un centre d’essai en arts visuels voué à l’expression des artistes professionnels. En date de 2013, plusieurs parties de complexe étaient inoccupées et en 2016 à un projet de loft d’habitation est envisagé[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1880 l’industrie du tabac voit le jour à Granby. L’Empire Tobacco, a été fondé Halifax en 1864 par John Archibald, en 1887 l’industrie déménage à Montréal, mais à la suite d'un incendie en 1895 le maire de Granby, Stephen Henderson Campbell Miner, convainc John Archibald de s’installer à Granby avec une offre généreuse. À partir de ce moment-là, l’industrie de spécialise dans le tabac à pipe et à chiquer. En 1898, l’usine se fait vendre à l’American Tobacco, en 1908 elle est rachetée par l’Imperial Tobacco. Celle-ci connaît un développement spectaculaire.
+En 1912, a lieu la construction de plus grand immeuble du groupe actuel et il y construit en 1946-1947 un étage supplémentaire. En 1930, on y comptait 700 travailleurs ce qui fut la deuxième plus importante usine de Granby. L’Imperial Tobacco a continué à se consacrer à la production de tabac à chiquer et au tabac à pipe. Certaines marques comme : Royal Oak, Olf Fox, Empire ou Rosebud, ont fait connaitre la ville de Granby jusqu'au bout du Canada.
+Mais, après la Seconde Guerre mondiale, la compagnie perd beaucoup d’actif dû au fait que la société évolue et devient plus axé sur les cigarettes que le tabac à chiquer ou le tabac à pipe. Puisqu'il est trop coûteux d’adapter l’usine à une telle demande, la compagnie fait des mises à pied et des baisses de production. En 1971, dû à une demande presque insistante la compagnie ferme ses portes, ce qui met fin à l’industrie du tabac à Granby.
+Quelques années plus tard la bâtisse fut achetée par un homme d’affaires du nom de Gérald Scoot, qui l’offre en location à diverses entreprises et à quelques artisanats. En 1974, un projet d’emménagement de l’Impérial est né, après que l’entreprise Chasco en est fait l’acquisition et à développer des ateliers destinés aux artistes. En 1984, eut le 3e Impérial, un centre d’essai en arts visuels voué à l’expression des artistes professionnels. En date de 2013, plusieurs parties de complexe étaient inoccupées et en 2016 à un projet de loft d’habitation est envisagé,.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Imp%C3%A9rial_Lofts</t>
+          <t>Impérial_Lofts</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Noms que la bâtisse a déjà possédé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Empire Tobacco (1895)
 American Tobacco (1898)
